--- a/Data/Assumption/Zone_Limit/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MaxCapacity" sheetId="4" r:id="rId1"/>
@@ -71,24 +71,6 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
-  </si>
-  <si>
-    <t>COA_CHP_EC</t>
-  </si>
-  <si>
-    <t>GAS_CHP_BP</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC</t>
-  </si>
-  <si>
-    <t>COA_CHP_BP_CCS</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC_CCS</t>
-  </si>
-  <si>
     <t>ProcessName</t>
   </si>
   <si>
@@ -108,6 +90,24 @@
   </si>
   <si>
     <t>BIO_IGCC_CCS</t>
+  </si>
+  <si>
+    <t>COA_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -571,7 +571,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1783,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -1822,7 +1822,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>0</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>0</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>

--- a/Data/Assumption/Zone_Limit/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MaxCapacity" sheetId="4" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,34 +950,34 @@
         <v>1000</v>
       </c>
       <c r="D11" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -991,34 +991,34 @@
         <v>1000</v>
       </c>
       <c r="D12" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1032,34 +1032,34 @@
         <v>1000</v>
       </c>
       <c r="D13" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1073,34 +1073,34 @@
         <v>1000</v>
       </c>
       <c r="D14" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>1000</v>
       </c>
       <c r="D15" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1155,34 +1155,34 @@
         <v>1000</v>
       </c>
       <c r="D16" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,34 +1196,34 @@
         <v>1000</v>
       </c>
       <c r="D17" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1237,34 +1237,34 @@
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A29"/>
     </sheetView>
   </sheetViews>

--- a/Data/Assumption/Zone_Limit/ZoneA2.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA2.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:M18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <v>4000</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <v>4000</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>4000</v>
@@ -1644,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6">
         <v>4000</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
         <v>4000</v>
